--- a/samsetningasafn.xlsx
+++ b/samsetningasafn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ee42a3bf195890/Documents/GitHub/Samsetningasafn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="8_{893C3D3A-128D-4284-A1B3-B8965BC4BB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A11B3A02-1D4D-4652-87D5-DCAC38B37439}"/>
+  <xr:revisionPtr revIDLastSave="1013" documentId="8_{893C3D3A-128D-4284-A1B3-B8965BC4BB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA058A36-AE67-44DF-978F-D09BFE5A0882}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="888" xr2:uid="{98B62585-CAE3-4944-97DC-89B730BF663A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="888" activeTab="1" xr2:uid="{98B62585-CAE3-4944-97DC-89B730BF663A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9476" uniqueCount="8068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9673" uniqueCount="8109">
   <si>
     <t>svartsýnn</t>
   </si>
@@ -24238,6 +24238,129 @@
   </si>
   <si>
     <t>svartur og glansandi</t>
+  </si>
+  <si>
+    <t>glámóttur</t>
+  </si>
+  <si>
+    <t>gláma</t>
+  </si>
+  <si>
+    <t>með svarta blesu</t>
+  </si>
+  <si>
+    <t>glæsóttur</t>
+  </si>
+  <si>
+    <t>glæsi</t>
+  </si>
+  <si>
+    <t>svartur með hvítt höfuð, fætur, og kvið</t>
+  </si>
+  <si>
+    <t>gjafi</t>
+  </si>
+  <si>
+    <t>gefa</t>
+  </si>
+  <si>
+    <t>gellingur</t>
+  </si>
+  <si>
+    <t>gjalla</t>
+  </si>
+  <si>
+    <t>gæs</t>
+  </si>
+  <si>
+    <t>Branta</t>
+  </si>
+  <si>
+    <t>fygla</t>
+  </si>
+  <si>
+    <t>fugl</t>
+  </si>
+  <si>
+    <t>freknóttur</t>
+  </si>
+  <si>
+    <t>frekna</t>
+  </si>
+  <si>
+    <t>fóðraður</t>
+  </si>
+  <si>
+    <t>með svörtu fóðri</t>
+  </si>
+  <si>
+    <t>Svartflekka</t>
+  </si>
+  <si>
+    <t>flekkaður</t>
+  </si>
+  <si>
+    <t>flekkur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">með svörtum flekkjum </t>
+  </si>
+  <si>
+    <t>fjöðrungur</t>
+  </si>
+  <si>
+    <t>fjöður</t>
+  </si>
+  <si>
+    <t>fáni</t>
+  </si>
+  <si>
+    <t>svartur fáni, eða sá sem ber svartan fána</t>
+  </si>
+  <si>
+    <t>svartbrúnóttur</t>
+  </si>
+  <si>
+    <t>svartbrúnn (með svartar augabrúnir)</t>
+  </si>
+  <si>
+    <t>brún</t>
+  </si>
+  <si>
+    <t>með svartar (auga)brúnir</t>
+  </si>
+  <si>
+    <t>svartbrún á lit</t>
+  </si>
+  <si>
+    <t>brennandi</t>
+  </si>
+  <si>
+    <t>brenna</t>
+  </si>
+  <si>
+    <t>brenna þar til það er svart</t>
+  </si>
+  <si>
+    <t>bólstur</t>
+  </si>
+  <si>
+    <t>bólstra</t>
+  </si>
+  <si>
+    <t>bólstraður</t>
+  </si>
+  <si>
+    <t>bólstraður í svörtu</t>
+  </si>
+  <si>
+    <t>bökóttur</t>
+  </si>
+  <si>
+    <t>bak</t>
+  </si>
+  <si>
+    <t>svart ský</t>
   </si>
 </sst>
 </file>
@@ -24401,8 +24524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FA566A1-2584-4D27-A31A-B11407F76664}" name="Table1" displayName="Table1" ref="A1:L165" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L165" xr:uid="{278E04F9-E6C5-4773-8443-5EC2A313F734}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FA566A1-2584-4D27-A31A-B11407F76664}" name="Table1" displayName="Table1" ref="A1:L186" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L186" xr:uid="{278E04F9-E6C5-4773-8443-5EC2A313F734}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K34">
     <sortCondition descending="1" ref="A1:A34"/>
   </sortState>
@@ -24721,10 +24844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BB78E-5DA4-4F7C-9741-22583D8C0C59}">
-  <dimension ref="A1:B7703"/>
+  <dimension ref="A1:B7682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7666" workbookViewId="0">
-      <selection activeCell="A7704" sqref="A7704"/>
+    <sheetView topLeftCell="A7651" workbookViewId="0">
+      <selection activeCell="A7659" sqref="A7659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86002,254 +86125,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7660" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B7660" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7661" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B7661" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7662" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B7662" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7663" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B7663" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="7664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7664" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B7664" s="1">
-        <v>0</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="7665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7665" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B7665" s="1">
-        <v>0</v>
+        <v>7814</v>
+      </c>
+      <c r="B7665" s="5" t="s">
+        <v>7815</v>
       </c>
     </row>
     <row r="7666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7666" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B7666" s="1">
-        <v>0</v>
+        <v>1205</v>
+      </c>
+      <c r="B7666" s="5" t="s">
+        <v>7815</v>
       </c>
     </row>
     <row r="7667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7667" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B7667" s="1">
-        <v>0</v>
+        <v>7822</v>
+      </c>
+      <c r="B7667" s="5" t="s">
+        <v>7823</v>
       </c>
     </row>
     <row r="7668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7668" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B7668" s="1">
-        <v>0</v>
+        <v>7832</v>
+      </c>
+      <c r="B7668" s="5" t="s">
+        <v>7833</v>
       </c>
     </row>
     <row r="7669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7669" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B7669" s="1">
-        <v>0</v>
+        <v>7900</v>
+      </c>
+      <c r="B7669" s="5" t="s">
+        <v>7899</v>
       </c>
     </row>
     <row r="7670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7670" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B7670" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7671" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8041</v>
+      </c>
+      <c r="B7670" s="1" t="s">
+        <v>8042</v>
+      </c>
+    </row>
+    <row r="7671" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7671" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B7671" s="1">
-        <v>0</v>
+        <v>8041</v>
+      </c>
+      <c r="B7671" s="12" t="s">
+        <v>8043</v>
       </c>
     </row>
     <row r="7672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7672" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B7672" s="1">
-        <v>0</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="7673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7673" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B7673" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7674" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B7674" s="1">
-        <v>0</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="7675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7675" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B7675" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7676" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B7676" s="1">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7677" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B7677" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7678" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B7678" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7691" s="1" t="s">
-        <v>7813</v>
-      </c>
-    </row>
-    <row r="7692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7692" s="1" t="s">
-        <v>7814</v>
-      </c>
-      <c r="B7692" s="5" t="s">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="7693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7693" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B7693" s="5" t="s">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="7694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7694" s="1" t="s">
-        <v>7822</v>
-      </c>
-      <c r="B7694" s="5" t="s">
-        <v>7823</v>
-      </c>
-    </row>
-    <row r="7695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7695" s="1" t="s">
-        <v>7832</v>
-      </c>
-      <c r="B7695" s="5" t="s">
-        <v>7833</v>
-      </c>
-    </row>
-    <row r="7696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7696" s="1" t="s">
-        <v>7900</v>
-      </c>
-      <c r="B7696" s="5" t="s">
-        <v>7899</v>
-      </c>
-    </row>
-    <row r="7697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7697" s="1" t="s">
-        <v>8041</v>
-      </c>
-      <c r="B7697" s="1" t="s">
-        <v>8042</v>
-      </c>
-    </row>
-    <row r="7698" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7698" s="1" t="s">
-        <v>8041</v>
-      </c>
-      <c r="B7698" s="12" t="s">
-        <v>8043</v>
-      </c>
-    </row>
-    <row r="7699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7699" s="1" t="s">
-        <v>8046</v>
-      </c>
-    </row>
-    <row r="7700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7700" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7701" s="1" t="s">
-        <v>8055</v>
-      </c>
-    </row>
-    <row r="7702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7702" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7703" s="1" t="s">
-        <v>471</v>
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="7679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7679" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7680" s="1" t="s">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="7681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7681" s="1" t="s">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="7682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7682" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7699:B7726">
-    <sortCondition ref="B7699:B7726"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7672:B7699">
+    <sortCondition ref="B7672:B7699"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B7692" r:id="rId1" tooltip="Slökkva á lesham" display="https://timarit.is/page/3304960?iabr=on" xr:uid="{E548C002-82DA-4861-909F-95D75EAEAC45}"/>
-    <hyperlink ref="B7693" r:id="rId2" tooltip="Slökkva á lesham" display="https://timarit.is/page/3304960?iabr=on" xr:uid="{8E43C879-EA9E-4391-8B83-41954FC01F35}"/>
-    <hyperlink ref="B7694" r:id="rId3" tooltip="Slökkva á lesham" display="https://timarit.is/page/2213585?iabr=on" xr:uid="{72A59389-F02D-4C1C-89AB-950BC96C8141}"/>
-    <hyperlink ref="B7695" r:id="rId4" tooltip="Slökkva á lesham" display="https://timarit.is/page/1307148?iabr=on" xr:uid="{ABA038D7-AB2C-49F9-A06F-1D194646D517}"/>
-    <hyperlink ref="B7696" r:id="rId5" tooltip="Slökkva á lesham" display="https://timarit.is/page/3939737?iabr=on" xr:uid="{D56F9E36-1A86-457F-B028-5C38A1DA13C3}"/>
+    <hyperlink ref="B7665" r:id="rId1" tooltip="Slökkva á lesham" display="https://timarit.is/page/3304960?iabr=on" xr:uid="{E548C002-82DA-4861-909F-95D75EAEAC45}"/>
+    <hyperlink ref="B7666" r:id="rId2" tooltip="Slökkva á lesham" display="https://timarit.is/page/3304960?iabr=on" xr:uid="{8E43C879-EA9E-4391-8B83-41954FC01F35}"/>
+    <hyperlink ref="B7667" r:id="rId3" tooltip="Slökkva á lesham" display="https://timarit.is/page/2213585?iabr=on" xr:uid="{72A59389-F02D-4C1C-89AB-950BC96C8141}"/>
+    <hyperlink ref="B7668" r:id="rId4" tooltip="Slökkva á lesham" display="https://timarit.is/page/1307148?iabr=on" xr:uid="{ABA038D7-AB2C-49F9-A06F-1D194646D517}"/>
+    <hyperlink ref="B7669" r:id="rId5" tooltip="Slökkva á lesham" display="https://timarit.is/page/3939737?iabr=on" xr:uid="{D56F9E36-1A86-457F-B028-5C38A1DA13C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -86258,12 +86259,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4066DA26-BF5F-47D1-A4EC-719C36B32702}">
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E34" sqref="E34"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92218,346 +92219,1111 @@
         <v>7717</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B157" s="10">
+        <v>0</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>7739</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="10" t="s">
         <v>8047</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="10" t="s">
         <v>8048</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L157" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B158" s="10">
+        <v>0</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>7739</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="10" t="s">
         <v>8049</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="10" t="s">
         <v>7750</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="10">
         <v>4</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="10" t="s">
         <v>7710</v>
       </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D159" s="10">
+        <v>0</v>
+      </c>
+      <c r="E159" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="10" t="s">
         <v>8050</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="10" t="s">
         <v>8051</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" s="10" t="s">
         <v>8014</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="10" t="s">
         <v>8052</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B160" s="10">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>7739</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D160" s="10">
+        <v>0</v>
+      </c>
+      <c r="E160" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="10" t="s">
         <v>8053</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="10" t="s">
         <v>7745</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K160" s="10" t="s">
         <v>8054</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L160" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B161" s="10">
+        <v>1</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>7739</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="D161" s="10">
+        <v>0</v>
+      </c>
+      <c r="E161" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="10" t="s">
         <v>8056</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" s="10" t="s">
         <v>7745</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K161" s="10" t="s">
         <v>8057</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B162" s="10">
+        <v>0</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>7710</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="10" t="s">
         <v>8058</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="10" t="s">
         <v>8059</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J162" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K162" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B163" s="10">
+        <v>0</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>7710</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="10" t="s">
         <v>8060</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="10" t="s">
         <v>8061</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K163" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="10">
         <v>2</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="10" t="s">
         <v>7710</v>
       </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D164" s="10">
+        <v>0</v>
+      </c>
+      <c r="E164" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="10" t="s">
         <v>8062</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="10" t="s">
         <v>8063</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" s="10" t="s">
         <v>8014</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K164" s="10" t="s">
         <v>8064</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L164" s="10" t="s">
         <v>7717</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="10">
         <v>3</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="10" t="s">
         <v>7710</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="D165" s="10">
+        <v>0</v>
+      </c>
+      <c r="E165" s="10" t="s">
         <v>7730</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="10" t="s">
         <v>8065</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="10" t="s">
         <v>7717</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="10" t="s">
         <v>8066</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="10" t="s">
         <v>7748</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" s="10" t="s">
         <v>8014</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K165" s="10" t="s">
         <v>8067</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L165" s="10" t="s">
         <v>7717</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="B166" s="10">
+        <v>1</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D166" s="10">
+        <v>0</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>8068</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>8069</v>
+      </c>
+      <c r="I166" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K166" s="10" t="s">
+        <v>8070</v>
+      </c>
+      <c r="L166" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="B167" s="10">
+        <v>1</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D167" s="10">
+        <v>0</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>8071</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>8072</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K167" s="10" t="s">
+        <v>8073</v>
+      </c>
+      <c r="L167" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="B168" s="10">
+        <v>0</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>8074</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>8075</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K168" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L168" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="B169" s="10">
+        <v>0</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>8076</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>8077</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J169" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K169" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L169" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="B170" s="10">
+        <v>3</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D170" s="10">
+        <v>0</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>8078</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>7745</v>
+      </c>
+      <c r="K170" s="11" t="s">
+        <v>8079</v>
+      </c>
+      <c r="L170" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="B171" s="10">
+        <v>0</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>8080</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>8081</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J171" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L171" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="B172" s="10">
+        <v>0</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>8082</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>8083</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J172" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K172" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L172" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="B173" s="10">
+        <v>7</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D173" s="10">
+        <v>0</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>8084</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>8003</v>
+      </c>
+      <c r="I173" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K173" s="10" t="s">
+        <v>8085</v>
+      </c>
+      <c r="L173" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="B174" s="10">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D174" s="10">
+        <v>0</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>8087</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>8088</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J174" s="10" t="s">
+        <v>7894</v>
+      </c>
+      <c r="K174" s="10" t="s">
+        <v>8089</v>
+      </c>
+      <c r="L174" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="B175" s="10">
+        <v>0</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>8090</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>8091</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J175" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K175" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="B176" s="10">
+        <v>1</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D176" s="10">
+        <v>0</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>8092</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>7745</v>
+      </c>
+      <c r="K176" s="10" t="s">
+        <v>8093</v>
+      </c>
+      <c r="L176" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B177" s="10">
+        <v>4</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>7790</v>
+      </c>
+      <c r="D177" s="10">
+        <v>0</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>8096</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H177" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J177" s="10" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K177" s="10" t="s">
+        <v>8097</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B178" s="10">
+        <v>8</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>7790</v>
+      </c>
+      <c r="D178" s="10">
+        <v>0</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>7796</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J178" s="10" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K178" s="10" t="s">
+        <v>8098</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="B179" s="10">
+        <v>0</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>8031</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J179" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K179" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="B180" s="10">
+        <v>0</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>8099</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>8100</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J180" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K180" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B181" s="10">
+        <v>2</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>7843</v>
+      </c>
+      <c r="D181" s="10">
+        <v>0</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>8100</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J181" s="10" t="s">
+        <v>7714</v>
+      </c>
+      <c r="K181" s="10" t="s">
+        <v>8101</v>
+      </c>
+      <c r="L181" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="B182" s="10">
+        <v>2</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>7739</v>
+      </c>
+      <c r="D182" s="10">
+        <v>0</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>8102</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J182" s="10" t="s">
+        <v>7745</v>
+      </c>
+      <c r="K182" s="10" t="s">
+        <v>8108</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="B183" s="10">
+        <v>0</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>7843</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>8103</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>8102</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J183" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B184" s="10">
+        <v>4</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D184" s="10">
+        <v>0</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>8104</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>8102</v>
+      </c>
+      <c r="I184" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J184" s="10" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K184" s="10" t="s">
+        <v>8105</v>
+      </c>
+      <c r="L184" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B185" s="10">
+        <v>0</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>7730</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>8106</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>8107</v>
+      </c>
+      <c r="I185" s="10" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J185" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="K185" s="10" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
